--- a/acc-v3.xlsx
+++ b/acc-v3.xlsx
@@ -1,33 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="30720" windowHeight="13464"/>
   </bookViews>
   <sheets>
     <sheet name="eval_multi" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t>ari</t>
   </si>
@@ -131,27 +118,119 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -159,135 +238,43 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -301,25 +288,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,157 +468,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,17 +482,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,17 +545,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,164 +579,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -751,271 +738,57 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-  </dxfs>
-  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
-    </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
-    </tableStyle>
-  </tableStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1284,18 +1057,16 @@
   <sheetPr/>
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.875" customWidth="1"/>
-    <col min="2" max="3" width="11.5"/>
-    <col min="4" max="4" width="10.375"/>
-    <col min="5" max="5" width="11.5"/>
-    <col min="8" max="11" width="12.625"/>
-    <col min="13" max="13" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="23.2222222222222" customWidth="1"/>
+    <col min="2" max="5" width="11.7777777777778" customWidth="1"/>
+    <col min="8" max="11" width="12.8888888888889"/>
+    <col min="13" max="13" width="19.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17">
@@ -1311,18 +1082,6 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" t="s">
-        <v>3</v>
-      </c>
       <c r="N1" t="s">
         <v>0</v>
       </c>
@@ -1341,35 +1100,35 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.76741999</v>
+        <v>0.75983649</v>
       </c>
       <c r="C2">
-        <v>0.82671523</v>
+        <v>0.84086931</v>
       </c>
       <c r="D2">
-        <v>0.6096791</v>
+        <v>0.61106336</v>
       </c>
       <c r="E2">
-        <v>0.59297961</v>
+        <v>0.59549022</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="1">
         <f>AVERAGE(B2:B4)*100</f>
-        <v>76.8879986666667</v>
+        <v>76.821943</v>
       </c>
       <c r="I2" s="1">
         <f>AVERAGE(C2:C4)*100</f>
-        <v>80.708148</v>
+        <v>82.1708976666667</v>
       </c>
       <c r="J2" s="1">
         <f>AVERAGE(D2:D4)*100</f>
-        <v>60.022392</v>
+        <v>60.6259263333333</v>
       </c>
       <c r="K2" s="1">
         <f>AVERAGE(E2:E4)*100</f>
-        <v>58.1326186666667</v>
+        <v>58.8821073333333</v>
       </c>
       <c r="M2" t="str">
         <f>LEFT(A2,LEN(A2)-3)</f>
@@ -1377,19 +1136,19 @@
       </c>
       <c r="N2" t="str">
         <f>TEXT(H2,"0.0")&amp;"±"&amp;TEXT(H3,"0.0")</f>
-        <v>76.9±1.4</v>
+        <v>76.8±0.7</v>
       </c>
       <c r="O2" t="str">
         <f>TEXT(I2,"0.0")&amp;"±"&amp;TEXT(I3,"0.0")</f>
-        <v>80.7±1.7</v>
+        <v>82.2±1.7</v>
       </c>
       <c r="P2" t="str">
         <f>TEXT(J2,"0.0")&amp;"±"&amp;TEXT(J3,"0.0")</f>
-        <v>60.0±1.8</v>
+        <v>60.6±0.4</v>
       </c>
       <c r="Q2" t="str">
         <f>TEXT(K2,"0.0")&amp;"±"&amp;TEXT(K3,"0.0")</f>
-        <v>58.1±2.3</v>
+        <v>58.9±0.6</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1397,88 +1156,92 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.75558513</v>
+        <v>0.77330089</v>
       </c>
       <c r="C3">
-        <v>0.7989819</v>
+        <v>0.81740862</v>
       </c>
       <c r="D3">
-        <v>0.57942814</v>
+        <v>0.60535651</v>
       </c>
       <c r="E3">
-        <v>0.55538321</v>
+        <v>0.58796662</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="1">
         <f>STDEV(B2:B4)*100</f>
-        <v>1.40817346399878</v>
+        <v>0.731418788949261</v>
       </c>
       <c r="I3" s="1">
         <f>STDEV(C2:C4)*100</f>
-        <v>1.70898275712162</v>
+        <v>1.74130747922196</v>
       </c>
       <c r="J3" s="1">
         <f>STDEV(D2:D4)*100</f>
-        <v>1.8034329804581</v>
+        <v>0.44223742587024</v>
       </c>
       <c r="K3" s="1">
         <f>STDEV(E2:E4)*100</f>
-        <v>2.25059064267501</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.628562909823136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.78363484</v>
+        <v>0.77152091</v>
       </c>
       <c r="C4">
-        <v>0.79554731</v>
+        <v>0.806849</v>
       </c>
       <c r="D4">
-        <v>0.61156452</v>
+        <v>0.60235792</v>
       </c>
       <c r="E4">
-        <v>0.59561574</v>
-      </c>
+        <v>0.58300638</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.30715537</v>
+        <v>0.30330905</v>
       </c>
       <c r="C5">
-        <v>0.42467773</v>
+        <v>0.40099263</v>
       </c>
       <c r="D5">
-        <v>0.34106123</v>
+        <v>0.33320829</v>
       </c>
       <c r="E5">
-        <v>0.32606858</v>
+        <v>0.31688756</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="1">
         <f>AVERAGE(B5:B7)*100</f>
-        <v>29.5912503333333</v>
+        <v>29.312408</v>
       </c>
       <c r="I5" s="1">
         <f>AVERAGE(C5:C7)*100</f>
-        <v>41.9492246666667</v>
+        <v>41.346239</v>
       </c>
       <c r="J5" s="1">
         <f>AVERAGE(D5:D7)*100</f>
-        <v>33.60548</v>
+        <v>33.3527683333333</v>
       </c>
       <c r="K5" s="1">
         <f>AVERAGE(E5:E7)*100</f>
-        <v>32.0994616666667</v>
+        <v>31.8331916666667</v>
       </c>
       <c r="M5" t="str">
         <f>LEFT(A5,LEN(A5)-3)</f>
@@ -1486,19 +1249,19 @@
       </c>
       <c r="N5" t="str">
         <f>TEXT(H5,"0.0")&amp;"±"&amp;TEXT(H6,"0.0")</f>
-        <v>29.6±1.0</v>
+        <v>29.3±1.0</v>
       </c>
       <c r="O5" t="str">
         <f>TEXT(I5,"0.0")&amp;"±"&amp;TEXT(I6,"0.0")</f>
-        <v>41.9±0.7</v>
+        <v>41.3±1.2</v>
       </c>
       <c r="P5" t="str">
         <f>TEXT(J5,"0.0")&amp;"±"&amp;TEXT(J6,"0.0")</f>
-        <v>33.6±0.5</v>
+        <v>33.4±0.2</v>
       </c>
       <c r="Q5" t="str">
         <f>TEXT(K5,"0.0")&amp;"±"&amp;TEXT(K6,"0.0")</f>
-        <v>32.1±0.5</v>
+        <v>31.8±0.2</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1506,88 +1269,92 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.29130244</v>
+        <v>0.2927475</v>
       </c>
       <c r="C6">
-        <v>0.41172332</v>
+        <v>0.42519352</v>
       </c>
       <c r="D6">
-        <v>0.33527872</v>
+        <v>0.33573839</v>
       </c>
       <c r="E6">
-        <v>0.32053179</v>
+        <v>0.3209804</v>
       </c>
       <c r="G6" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="1">
         <f>STDEV(B5:B7)*100</f>
-        <v>0.978899419962201</v>
+        <v>1.00019983200709</v>
       </c>
       <c r="I6" s="1">
         <f>STDEV(C5:C7)*100</f>
-        <v>0.685272348810553</v>
+        <v>1.21173408760214</v>
       </c>
       <c r="J6" s="1">
         <f>STDEV(D5:D7)*100</f>
-        <v>0.46670388167338</v>
+        <v>0.206957751633837</v>
       </c>
       <c r="K6" s="1">
         <f>STDEV(E5:E7)*100</f>
-        <v>0.485910968131337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.229679681043694</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2892797</v>
+        <v>0.28331569</v>
       </c>
       <c r="C7">
-        <v>0.42207569</v>
+        <v>0.41420102</v>
       </c>
       <c r="D7">
-        <v>0.33182445</v>
+        <v>0.33163637</v>
       </c>
       <c r="E7">
-        <v>0.31638348</v>
-      </c>
+        <v>0.31712779</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.33780789</v>
+        <v>0.34361336</v>
       </c>
       <c r="C8">
-        <v>0.34613433</v>
+        <v>0.33341849</v>
       </c>
       <c r="D8">
-        <v>0.44861636</v>
+        <v>0.45447776</v>
       </c>
       <c r="E8">
-        <v>0.4354353</v>
+        <v>0.44119799</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="1">
         <f>AVERAGE(B8:B10)*100</f>
-        <v>34.110073</v>
+        <v>34.9683743333333</v>
       </c>
       <c r="I8" s="1">
         <f>AVERAGE(C8:C10)*100</f>
-        <v>34.486388</v>
+        <v>33.6365816666667</v>
       </c>
       <c r="J8" s="1">
         <f>AVERAGE(D8:D10)*100</f>
-        <v>45.1598176666667</v>
+        <v>45.2465386666667</v>
       </c>
       <c r="K8" s="1">
         <f>AVERAGE(E8:E10)*100</f>
-        <v>43.8551436666667</v>
+        <v>43.948244</v>
       </c>
       <c r="M8" t="str">
         <f>LEFT(A8,LEN(A8)-3)</f>
@@ -1595,11 +1362,11 @@
       </c>
       <c r="N8" t="str">
         <f>TEXT(H8,"0.0")&amp;"±"&amp;TEXT(H9,"0.0")</f>
-        <v>34.1±0.3</v>
+        <v>35.0±0.5</v>
       </c>
       <c r="O8" t="str">
         <f>TEXT(I8,"0.0")&amp;"±"&amp;TEXT(I9,"0.0")</f>
-        <v>34.5±0.2</v>
+        <v>33.6±1.2</v>
       </c>
       <c r="P8" t="str">
         <f>TEXT(J8,"0.0")&amp;"±"&amp;TEXT(J9,"0.0")</f>
@@ -1615,88 +1382,92 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.34311071</v>
+        <v>0.35397071</v>
       </c>
       <c r="C9">
-        <v>0.34313977</v>
+        <v>0.35006037</v>
       </c>
       <c r="D9">
-        <v>0.45333087</v>
+        <v>0.45345354</v>
       </c>
       <c r="E9">
-        <v>0.44085389</v>
+        <v>0.44119719</v>
       </c>
       <c r="G9" t="s">
         <v>7</v>
       </c>
       <c r="H9" s="1">
         <f>STDEV(B8:B10)*100</f>
-        <v>0.287476474216587</v>
+        <v>0.540408234678503</v>
       </c>
       <c r="I9" s="1">
         <f>STDEV(C8:C10)*100</f>
-        <v>0.154796735918428</v>
+        <v>1.24845986420122</v>
       </c>
       <c r="J9" s="1">
         <f>STDEV(D8:D10)*100</f>
-        <v>0.259362351960213</v>
+        <v>0.264851408531903</v>
       </c>
       <c r="K9" s="1">
         <f>STDEV(E8:E10)*100</f>
-        <v>0.279943562566338</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.297072696953121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.34238359</v>
+        <v>0.35146716</v>
       </c>
       <c r="C10">
-        <v>0.34531754</v>
+        <v>0.32561859</v>
       </c>
       <c r="D10">
-        <v>0.4528473</v>
+        <v>0.44946486</v>
       </c>
       <c r="E10">
-        <v>0.43936512</v>
-      </c>
+        <v>0.43605214</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.44907549</v>
+        <v>0.49211317</v>
       </c>
       <c r="C11">
-        <v>0.70952255</v>
+        <v>0.68760204</v>
       </c>
       <c r="D11">
-        <v>0.29155061</v>
+        <v>0.30793315</v>
       </c>
       <c r="E11">
-        <v>0.27351886</v>
+        <v>0.29338789</v>
       </c>
       <c r="G11" t="s">
         <v>5</v>
       </c>
       <c r="H11" s="1">
         <f>AVERAGE(B11:B13)*100</f>
-        <v>45.3131986666667</v>
+        <v>50.916928</v>
       </c>
       <c r="I11" s="1">
         <f>AVERAGE(C11:C13)*100</f>
-        <v>69.6894566666667</v>
+        <v>68.9849036666667</v>
       </c>
       <c r="J11" s="1">
         <f>AVERAGE(D11:D13)*100</f>
-        <v>29.0382066666667</v>
+        <v>31.7011643333333</v>
       </c>
       <c r="K11" s="1">
         <f>AVERAGE(E11:E13)*100</f>
-        <v>27.1859246666667</v>
+        <v>30.2437336666667</v>
       </c>
       <c r="M11" t="str">
         <f>LEFT(A11,LEN(A11)-3)</f>
@@ -1704,19 +1475,19 @@
       </c>
       <c r="N11" t="str">
         <f>TEXT(H11,"0.0")&amp;"±"&amp;TEXT(H12,"0.0")</f>
-        <v>45.3±0.6</v>
+        <v>50.9±1.6</v>
       </c>
       <c r="O11" t="str">
         <f>TEXT(I11,"0.0")&amp;"±"&amp;TEXT(I12,"0.0")</f>
-        <v>69.7±1.2</v>
+        <v>69.0±0.3</v>
       </c>
       <c r="P11" t="str">
         <f>TEXT(J11,"0.0")&amp;"±"&amp;TEXT(J12,"0.0")</f>
-        <v>29.0±0.2</v>
+        <v>31.7±0.8</v>
       </c>
       <c r="Q11" t="str">
         <f>TEXT(K11,"0.0")&amp;"±"&amp;TEXT(K12,"0.0")</f>
-        <v>27.2±0.3</v>
+        <v>30.2±0.8</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1724,88 +1495,92 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>0.45015413</v>
+        <v>0.51283062</v>
       </c>
       <c r="C12">
-        <v>0.69555825</v>
+        <v>0.69277453</v>
       </c>
       <c r="D12">
-        <v>0.28822976</v>
+        <v>0.32110941</v>
       </c>
       <c r="E12">
-        <v>0.26890522</v>
+        <v>0.30591801</v>
       </c>
       <c r="G12" t="s">
         <v>7</v>
       </c>
       <c r="H12" s="1">
         <f>STDEV(B11:B13)*100</f>
-        <v>0.611575515991552</v>
+        <v>1.55521085753765</v>
       </c>
       <c r="I12" s="1">
         <f>STDEV(C11:C13)*100</f>
-        <v>1.20156864433886</v>
+        <v>0.265215600880364</v>
       </c>
       <c r="J12" s="1">
         <f>STDEV(D11:D13)*100</f>
-        <v>0.186624058005213</v>
+        <v>0.787459113179431</v>
       </c>
       <c r="K12" s="1">
         <f>STDEV(E11:E13)*100</f>
-        <v>0.2564770539548</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.790628889758865</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13">
-        <v>0.46016634</v>
+        <v>0.52256405</v>
       </c>
       <c r="C13">
-        <v>0.6856029</v>
+        <v>0.68917054</v>
       </c>
       <c r="D13">
-        <v>0.29136583</v>
+        <v>0.32199237</v>
       </c>
       <c r="E13">
-        <v>0.27315366</v>
-      </c>
+        <v>0.30800611</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14">
-        <v>0.34627202</v>
+        <v>0.43139055</v>
       </c>
       <c r="C14">
-        <v>0.69790024</v>
+        <v>0.70145941</v>
       </c>
       <c r="D14">
-        <v>0.28626609</v>
+        <v>0.31013629</v>
       </c>
       <c r="E14">
-        <v>0.27120602</v>
+        <v>0.29807502</v>
       </c>
       <c r="G14" t="s">
         <v>5</v>
       </c>
       <c r="H14" s="1">
         <f>AVERAGE(B14:B16)*100</f>
-        <v>34.7676456666667</v>
+        <v>43.8128976666667</v>
       </c>
       <c r="I14" s="1">
         <f>AVERAGE(C14:C16)*100</f>
-        <v>70.0135373333333</v>
+        <v>70.4663653333333</v>
       </c>
       <c r="J14" s="1">
         <f>AVERAGE(D14:D16)*100</f>
-        <v>28.6792576666667</v>
+        <v>31.3880553333333</v>
       </c>
       <c r="K14" s="1">
         <f>AVERAGE(E14:E16)*100</f>
-        <v>27.2048543333333</v>
+        <v>30.1694773333333</v>
       </c>
       <c r="M14" t="str">
         <f>LEFT(A14,LEN(A14)-3)</f>
@@ -1813,19 +1588,19 @@
       </c>
       <c r="N14" t="str">
         <f>TEXT(H14,"0.0")&amp;"±"&amp;TEXT(H15,"0.0")</f>
-        <v>34.8±0.1</v>
+        <v>43.8±1.5</v>
       </c>
       <c r="O14" t="str">
         <f>TEXT(I14,"0.0")&amp;"±"&amp;TEXT(I15,"0.0")</f>
-        <v>70.0±0.2</v>
+        <v>70.5±0.7</v>
       </c>
       <c r="P14" t="str">
         <f>TEXT(J14,"0.0")&amp;"±"&amp;TEXT(J15,"0.0")</f>
-        <v>28.7±0.1</v>
+        <v>31.4±0.4</v>
       </c>
       <c r="Q14" t="str">
         <f>TEXT(K14,"0.0")&amp;"±"&amp;TEXT(K15,"0.0")</f>
-        <v>27.2±0.1</v>
+        <v>30.2±0.4</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1833,88 +1608,92 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>0.34785104</v>
+        <v>0.45548847</v>
       </c>
       <c r="C15">
-        <v>0.69996721</v>
+        <v>0.6999011</v>
       </c>
       <c r="D15">
-        <v>0.28834683</v>
+        <v>0.31867987</v>
       </c>
       <c r="E15">
-        <v>0.27377564</v>
+        <v>0.30642337</v>
       </c>
       <c r="G15" t="s">
         <v>7</v>
       </c>
       <c r="H15" s="1">
         <f>STDEV(B14:B16)*100</f>
-        <v>0.132579427372172</v>
+        <v>1.51585860137063</v>
       </c>
       <c r="I15" s="1">
         <f>STDEV(C14:C16)*100</f>
-        <v>0.232378299250027</v>
+        <v>0.694330392248771</v>
       </c>
       <c r="J15" s="1">
         <f>STDEV(D14:D16)*100</f>
-        <v>0.136915958811724</v>
+        <v>0.43684142381685</v>
       </c>
       <c r="K15" s="1">
         <f>STDEV(E14:E16)*100</f>
-        <v>0.1495857353705</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.428320990426959</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="B16">
-        <v>0.34890631</v>
+        <v>0.42750791</v>
       </c>
       <c r="C16">
-        <v>0.70253867</v>
+        <v>0.71263045</v>
       </c>
       <c r="D16">
-        <v>0.28576481</v>
+        <v>0.3128255</v>
       </c>
       <c r="E16">
-        <v>0.27116397</v>
-      </c>
+        <v>0.30058593</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>21</v>
       </c>
       <c r="B17">
-        <v>0.42181486</v>
+        <v>0.42429247</v>
       </c>
       <c r="C17">
-        <v>0.64376503</v>
+        <v>0.66869766</v>
       </c>
       <c r="D17">
-        <v>0.39748263</v>
+        <v>0.39203981</v>
       </c>
       <c r="E17">
-        <v>0.39093682</v>
+        <v>0.38530099</v>
       </c>
       <c r="G17" t="s">
         <v>5</v>
       </c>
       <c r="H17" s="1">
         <f>AVERAGE(B17:B19)*100</f>
-        <v>43.353986</v>
+        <v>42.415588</v>
       </c>
       <c r="I17" s="1">
         <f>AVERAGE(C17:C19)*100</f>
-        <v>61.6934356666667</v>
+        <v>62.951879</v>
       </c>
       <c r="J17" s="1">
         <f>AVERAGE(D17:D19)*100</f>
-        <v>40.5125456666667</v>
+        <v>38.928371</v>
       </c>
       <c r="K17" s="1">
         <f>AVERAGE(E17:E19)*100</f>
-        <v>39.9479776666667</v>
+        <v>38.3045513333333</v>
       </c>
       <c r="M17" t="str">
         <f>LEFT(A17,LEN(A17)-3)</f>
@@ -1922,19 +1701,19 @@
       </c>
       <c r="N17" t="str">
         <f>TEXT(H17,"0.0")&amp;"±"&amp;TEXT(H18,"0.0")</f>
-        <v>43.4±1.7</v>
+        <v>42.4±0.8</v>
       </c>
       <c r="O17" t="str">
         <f>TEXT(I17,"0.0")&amp;"±"&amp;TEXT(I18,"0.0")</f>
-        <v>61.7±2.4</v>
+        <v>63.0±3.4</v>
       </c>
       <c r="P17" t="str">
         <f>TEXT(J17,"0.0")&amp;"±"&amp;TEXT(J18,"0.0")</f>
-        <v>40.5±1.3</v>
+        <v>38.9±0.7</v>
       </c>
       <c r="Q17" t="str">
         <f>TEXT(K17,"0.0")&amp;"±"&amp;TEXT(K18,"0.0")</f>
-        <v>39.9±1.4</v>
+        <v>38.3±0.6</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1942,88 +1721,92 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>0.45364866</v>
+        <v>0.43164173</v>
       </c>
       <c r="C18">
-        <v>0.59618866</v>
+        <v>0.61339009</v>
       </c>
       <c r="D18">
-        <v>0.42006132</v>
+        <v>0.3940568</v>
       </c>
       <c r="E18">
-        <v>0.41615778</v>
+        <v>0.38783276</v>
       </c>
       <c r="G18" t="s">
         <v>7</v>
       </c>
       <c r="H18" s="1">
         <f>STDEV(B17:B19)*100</f>
-        <v>1.74946786892472</v>
+        <v>0.755507109841464</v>
       </c>
       <c r="I18" s="1">
         <f>STDEV(C17:C19)*100</f>
-        <v>2.43648917783279</v>
+        <v>3.41059317069318</v>
       </c>
       <c r="J18" s="1">
         <f>STDEV(D17:D19)*100</f>
-        <v>1.293601941847</v>
+        <v>0.659799884109568</v>
       </c>
       <c r="K18" s="1">
         <f>STDEV(E17:E19)*100</f>
-        <v>1.44450145043898</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>0.622915955772795</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>23</v>
       </c>
       <c r="B19">
-        <v>0.42515606</v>
+        <v>0.41653344</v>
       </c>
       <c r="C19">
-        <v>0.61084938</v>
+        <v>0.60646862</v>
       </c>
       <c r="D19">
-        <v>0.39783242</v>
+        <v>0.38175452</v>
       </c>
       <c r="E19">
-        <v>0.39134473</v>
-      </c>
+        <v>0.37600279</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20">
-        <v>0.26536742</v>
+        <v>0.26642394</v>
       </c>
       <c r="C20">
-        <v>0.76556569</v>
+        <v>0.76499128</v>
       </c>
       <c r="D20">
-        <v>0.48049277</v>
+        <v>0.47999796</v>
       </c>
       <c r="E20">
-        <v>0.4621318</v>
+        <v>0.46146953</v>
       </c>
       <c r="G20" t="s">
         <v>5</v>
       </c>
       <c r="H20" s="1">
         <f>AVERAGE(B20:B22)*100</f>
-        <v>25.6054656666667</v>
+        <v>25.6436456666667</v>
       </c>
       <c r="I20" s="1">
         <f>AVERAGE(C20:C22)*100</f>
-        <v>77.0607093333333</v>
+        <v>77.0772296666667</v>
       </c>
       <c r="J20" s="1">
         <f>AVERAGE(D20:D22)*100</f>
-        <v>48.2454696666667</v>
+        <v>48.2480823333333</v>
       </c>
       <c r="K20" s="1">
         <f>AVERAGE(E20:E22)*100</f>
-        <v>46.3198773333333</v>
+        <v>46.315068</v>
       </c>
       <c r="M20" t="str">
         <f>LEFT(A20,LEN(A20)-3)</f>
@@ -2031,7 +1814,7 @@
       </c>
       <c r="N20" t="str">
         <f>TEXT(H20,"0.0")&amp;"±"&amp;TEXT(H21,"0.0")</f>
-        <v>25.6±1.3</v>
+        <v>25.6±1.4</v>
       </c>
       <c r="O20" t="str">
         <f>TEXT(I20,"0.0")&amp;"±"&amp;TEXT(I21,"0.0")</f>
@@ -2051,88 +1834,92 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>0.26181293</v>
+        <v>0.26207706</v>
       </c>
       <c r="C21">
-        <v>0.77113587</v>
+        <v>0.77244484</v>
       </c>
       <c r="D21">
-        <v>0.48873827</v>
+        <v>0.48921779</v>
       </c>
       <c r="E21">
-        <v>0.47044468</v>
+        <v>0.47103119</v>
       </c>
       <c r="G21" t="s">
         <v>7</v>
       </c>
       <c r="H21" s="1">
         <f>STDEV(B20:B22)*100</f>
-        <v>1.31723463910586</v>
+        <v>1.37077226802716</v>
       </c>
       <c r="I21" s="1">
         <f>STDEV(C20:C22)*100</f>
-        <v>0.479891403159436</v>
+        <v>0.515252889525455</v>
       </c>
       <c r="J21" s="1">
         <f>STDEV(D20:D22)*100</f>
-        <v>0.556817205159226</v>
+        <v>0.590121705118811</v>
       </c>
       <c r="K21" s="1">
         <f>STDEV(E20:E22)*100</f>
-        <v>0.677572183069327</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.718890699592782</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>26</v>
       </c>
       <c r="B22">
-        <v>0.24098362</v>
+        <v>0.24080837</v>
       </c>
       <c r="C22">
-        <v>0.77511972</v>
+        <v>0.77488077</v>
       </c>
       <c r="D22">
-        <v>0.47813305</v>
+        <v>0.47822672</v>
       </c>
       <c r="E22">
-        <v>0.45701984</v>
-      </c>
+        <v>0.45695132</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>27</v>
       </c>
       <c r="B23">
-        <v>0.23861514</v>
+        <v>0.24065737</v>
       </c>
       <c r="C23">
-        <v>0.39750552</v>
+        <v>0.39945561</v>
       </c>
       <c r="D23">
-        <v>0.30913192</v>
+        <v>0.30939293</v>
       </c>
       <c r="E23">
-        <v>0.29348168</v>
+        <v>0.29362819</v>
       </c>
       <c r="G23" t="s">
         <v>5</v>
       </c>
       <c r="H23" s="1">
         <f>AVERAGE(B23:B25)*100</f>
-        <v>23.6086123333333</v>
+        <v>23.7360023333333</v>
       </c>
       <c r="I23" s="1">
         <f>AVERAGE(C23:C25)*100</f>
-        <v>40.131255</v>
+        <v>40.4127886666667</v>
       </c>
       <c r="J23" s="1">
         <f>AVERAGE(D23:D25)*100</f>
-        <v>30.780198</v>
+        <v>30.8664153333333</v>
       </c>
       <c r="K23" s="1">
         <f>AVERAGE(E23:E25)*100</f>
-        <v>29.2007676666667</v>
+        <v>29.3000103333333</v>
       </c>
       <c r="M23" t="str">
         <f>LEFT(A23,LEN(A23)-3)</f>
@@ -2140,19 +1927,19 @@
       </c>
       <c r="N23" t="str">
         <f>TEXT(H23,"0.0")&amp;"±"&amp;TEXT(H24,"0.0")</f>
-        <v>23.6±0.6</v>
+        <v>23.7±0.5</v>
       </c>
       <c r="O23" t="str">
         <f>TEXT(I23,"0.0")&amp;"±"&amp;TEXT(I24,"0.0")</f>
-        <v>40.1±0.6</v>
+        <v>40.4±0.5</v>
       </c>
       <c r="P23" t="str">
         <f>TEXT(J23,"0.0")&amp;"±"&amp;TEXT(J24,"0.0")</f>
-        <v>30.8±0.3</v>
+        <v>30.9±0.2</v>
       </c>
       <c r="Q23" t="str">
         <f>TEXT(K23,"0.0")&amp;"±"&amp;TEXT(K24,"0.0")</f>
-        <v>29.2±0.3</v>
+        <v>29.3±0.2</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2160,88 +1947,92 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>0.24076274</v>
+        <v>0.23927119</v>
       </c>
       <c r="C24">
-        <v>0.40801284</v>
+        <v>0.40987232</v>
       </c>
       <c r="D24">
-        <v>0.30986273</v>
+        <v>0.31028524</v>
       </c>
       <c r="E24">
-        <v>0.29408774</v>
+        <v>0.29463366</v>
       </c>
       <c r="G24" t="s">
         <v>7</v>
       </c>
       <c r="H24" s="1">
         <f>STDEV(B23:B25)*100</f>
-        <v>0.633197522427508</v>
+        <v>0.456364241650607</v>
       </c>
       <c r="I24" s="1">
         <f>STDEV(C23:C25)*100</f>
-        <v>0.582058059529288</v>
+        <v>0.529047273354975</v>
       </c>
       <c r="J24" s="1">
         <f>STDEV(D23:D25)*100</f>
-        <v>0.295907161472986</v>
+        <v>0.208337407779626</v>
       </c>
       <c r="K24" s="1">
         <f>STDEV(E23:E25)*100</f>
-        <v>0.309279316867993</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.202213140167335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>29</v>
       </c>
       <c r="B25">
-        <v>0.22888049</v>
+        <v>0.23215151</v>
       </c>
       <c r="C25">
-        <v>0.39841929</v>
+        <v>0.40305573</v>
       </c>
       <c r="D25">
-        <v>0.30441129</v>
+        <v>0.30631429</v>
       </c>
       <c r="E25">
-        <v>0.28845361</v>
-      </c>
+        <v>0.29073846</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" t="s">
         <v>30</v>
       </c>
       <c r="B26">
-        <v>0.24035338</v>
+        <v>0.24078427</v>
       </c>
       <c r="C26">
-        <v>0.32773709</v>
+        <v>0.31962144</v>
       </c>
       <c r="D26">
-        <v>0.39878795</v>
+        <v>0.39867422</v>
       </c>
       <c r="E26">
-        <v>0.38473347</v>
+        <v>0.38328546</v>
       </c>
       <c r="G26" t="s">
         <v>5</v>
       </c>
       <c r="H26" s="1">
         <f>AVERAGE(B26:B28)*100</f>
-        <v>24.4920236666667</v>
+        <v>24.4674303333333</v>
       </c>
       <c r="I26" s="1">
         <f>AVERAGE(C26:C28)*100</f>
-        <v>31.936882</v>
+        <v>31.0306746666667</v>
       </c>
       <c r="J26" s="1">
         <f>AVERAGE(D26:D28)*100</f>
-        <v>40.0903226666667</v>
+        <v>40.120079</v>
       </c>
       <c r="K26" s="1">
         <f>AVERAGE(E26:E28)*100</f>
-        <v>38.646129</v>
+        <v>38.599775</v>
       </c>
       <c r="M26" t="str">
         <f>LEFT(A26,LEN(A26)-3)</f>
@@ -2249,11 +2040,11 @@
       </c>
       <c r="N26" t="str">
         <f>TEXT(H26,"0.0")&amp;"±"&amp;TEXT(H27,"0.0")</f>
-        <v>24.5±0.4</v>
+        <v>24.5±0.3</v>
       </c>
       <c r="O26" t="str">
         <f>TEXT(I26,"0.0")&amp;"±"&amp;TEXT(I27,"0.0")</f>
-        <v>31.9±0.9</v>
+        <v>31.0±0.8</v>
       </c>
       <c r="P26" t="str">
         <f>TEXT(J26,"0.0")&amp;"±"&amp;TEXT(J27,"0.0")</f>
@@ -2269,53 +2060,57 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>0.24839765</v>
+        <v>0.24639721</v>
       </c>
       <c r="C27">
-        <v>0.3212446</v>
+        <v>0.30706522</v>
       </c>
       <c r="D27">
-        <v>0.40358362</v>
+        <v>0.40365809</v>
       </c>
       <c r="E27">
-        <v>0.38958174</v>
+        <v>0.38845506</v>
       </c>
       <c r="G27" t="s">
         <v>7</v>
       </c>
       <c r="H27" s="1">
         <f>STDEV(B26:B28)*100</f>
-        <v>0.413131154001164</v>
+        <v>0.337618162321481</v>
       </c>
       <c r="I27" s="1">
         <f>STDEV(C26:C28)*100</f>
-        <v>0.944687921495242</v>
+        <v>0.819006594557901</v>
       </c>
       <c r="J27" s="1">
         <f>STDEV(D26:D28)*100</f>
-        <v>0.244726997334443</v>
+        <v>0.249265697477611</v>
       </c>
       <c r="K27" s="1">
         <f>STDEV(E26:E28)*100</f>
-        <v>0.270758088261459</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>0.259421512991887</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>32</v>
       </c>
       <c r="B28">
-        <v>0.24600968</v>
+        <v>0.24684143</v>
       </c>
       <c r="C28">
-        <v>0.30912477</v>
+        <v>0.30423358</v>
       </c>
       <c r="D28">
-        <v>0.40033811</v>
+        <v>0.40127006</v>
       </c>
       <c r="E28">
-        <v>0.38506866</v>
-      </c>
+        <v>0.38625273</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
